--- a/document/맵.xlsx
+++ b/document/맵.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤장혁\Desktop\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E848A5-8644-4FC4-B12A-CC9E093456C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32384EBA-9D7F-4AF2-ABF5-14C7E4EA5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{4580E493-3B34-4719-B35B-E603BA582D19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4580E493-3B34-4719-B35B-E603BA582D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1700EDF-596C-4FD6-8541-312A72EC421B}">
   <dimension ref="B1:BO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BT4" sqref="BM4:BT11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BU21" sqref="BU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1279,10 +1279,10 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="4"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="1"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="12"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="11"/>
@@ -1317,10 +1317,10 @@
       <c r="AS13" s="11"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>

--- a/document/맵.xlsx
+++ b/document/맵.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32384EBA-9D7F-4AF2-ABF5-14C7E4EA5CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F1AC98-DF7F-40CD-9010-FDAB953B4CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4580E493-3B34-4719-B35B-E603BA582D19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4580E493-3B34-4719-B35B-E603BA582D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="맵1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,13 +35,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>현석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>석현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아케이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6칸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9칸(3x3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜드마크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저당 아이템 얻을 수 있는 기대값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +167,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -284,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,6 +433,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1700EDF-596C-4FD6-8541-312A72EC421B}">
   <dimension ref="B1:BO22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BU21" sqref="BU21"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1540,4 +1633,778 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16FA6D9-8BE5-4B98-BFC4-1C6730F85143}">
+  <dimension ref="B1:AD245"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="29" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="28"/>
+    </row>
+    <row r="3" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="X3" s="27"/>
+    </row>
+    <row r="4" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+    </row>
+    <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="1"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+    </row>
+    <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+    </row>
+    <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AD8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="AD10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="Z8:AB8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/맵.xlsx
+++ b/document/맵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F1AC98-DF7F-40CD-9010-FDAB953B4CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37367DB0-5E6B-418D-A7D1-DAD7184A6B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4580E493-3B34-4719-B35B-E603BA582D19}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유저당 아이템 얻을 수 있는 기대값</t>
+    <t>아케이드 건물 부수는 시간 = 20초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,24 +439,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,7 +1643,7 @@
   <dimension ref="B1:AD245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1674,11 +1677,11 @@
     </row>
     <row r="3" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1687,12 +1690,12 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="7"/>
       <c r="X3" s="27"/>
     </row>
@@ -1703,56 +1706,56 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="31"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="29" t="s">
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="O5" s="32"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="33"/>
+      <c r="S5" s="29"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="29"/>
       <c r="V5" s="1"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="29" t="s">
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
       <c r="AD5" t="s">
         <v>6</v>
       </c>
@@ -1761,38 +1764,38 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="32"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="29" t="s">
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1802,25 +1805,25 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="32"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="29" t="s">
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1829,20 +1832,20 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="29"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="29"/>
       <c r="V8" s="1"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="29" t="s">
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
       <c r="AD8" t="s">
         <v>7</v>
       </c>
@@ -1850,22 +1853,22 @@
     <row r="9" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="32"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1874,16 +1877,16 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="7"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1900,67 +1903,70 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
+      <c r="Z11" s="35">
+        <v>0.12708333333333333</v>
+      </c>
     </row>
     <row r="12" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
     </row>
     <row r="13" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="31"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1974,16 +1980,16 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="32"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="32"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="32"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1992,34 +1998,34 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2028,19 +2034,19 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2050,75 +2056,75 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="29"/>
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="32"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="32"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="33"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="31"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -2128,12 +2134,12 @@
     </row>
     <row r="21" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2142,11 +2148,11 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="U21" s="29"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/document/맵.xlsx
+++ b/document/맵.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022game\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\2022game\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37367DB0-5E6B-418D-A7D1-DAD7184A6B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B65D048-5508-4F2A-A44F-EB430A8FC57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4580E493-3B34-4719-B35B-E603BA582D19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4580E493-3B34-4719-B35B-E603BA582D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="맵1" sheetId="2" r:id="rId2"/>
+    <sheet name="맵4" sheetId="5" r:id="rId3"/>
+    <sheet name="맵5" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>현석</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,6 +78,26 @@
     <t>아케이드 건물 부수는 시간 = 20초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>리스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1칸 아케이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2칸 탱크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +225,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -347,13 +381,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,11 +570,47 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,7 +1792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16FA6D9-8BE5-4B98-BFC4-1C6730F85143}">
   <dimension ref="B1:AD245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -1722,11 +1872,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
     </row>
     <row r="5" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -1751,11 +1901,11 @@
       <c r="U5" s="29"/>
       <c r="V5" s="1"/>
       <c r="Y5" s="30"/>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
       <c r="AD5" t="s">
         <v>6</v>
       </c>
@@ -1783,11 +1933,11 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="Y6" s="31"/>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -1812,11 +1962,11 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="Y7" s="32"/>
-      <c r="Z7" s="34" t="s">
+      <c r="Z7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
@@ -1841,11 +1991,11 @@
       <c r="U8" s="29"/>
       <c r="V8" s="1"/>
       <c r="Y8" s="33"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Z8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
       <c r="AD8" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +2071,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="Z11" s="35">
+      <c r="Z11" s="34">
         <v>0.12708333333333333</v>
       </c>
     </row>
@@ -2413,4 +2563,2832 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9756EFC7-8C94-408A-93A2-B744848050EC}">
+  <dimension ref="B2:BN31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+    </row>
+    <row r="4" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+    </row>
+    <row r="5" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+    </row>
+    <row r="6" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+    </row>
+    <row r="7" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+    </row>
+    <row r="8" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+    </row>
+    <row r="9" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+    </row>
+    <row r="10" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD10" s="36"/>
+      <c r="BE10" s="36"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+    </row>
+    <row r="11" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="BC11" s="34"/>
+    </row>
+    <row r="12" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" spans="2:31" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="BI7:BK7"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="I20:K23"/>
+    <mergeCell ref="V10:X13"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BC6:BE6"/>
+    <mergeCell ref="BC7:BE7"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BF7:BH7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56774E8-5B11-495C-989A-7A501E62FB09}">
+  <dimension ref="B2:BN31"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+    </row>
+    <row r="3" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+    </row>
+    <row r="4" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+    </row>
+    <row r="5" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+    </row>
+    <row r="6" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="47"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+    </row>
+    <row r="7" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+    </row>
+    <row r="8" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="36"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+    </row>
+    <row r="9" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+    </row>
+    <row r="10" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="38"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="38"/>
+      <c r="AQ10" s="38"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="BB10" s="38"/>
+      <c r="BC10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD10" s="36"/>
+      <c r="BE10" s="36"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+    </row>
+    <row r="11" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="BC11" s="34"/>
+    </row>
+    <row r="12" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+    </row>
+    <row r="13" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+    </row>
+    <row r="14" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+    </row>
+    <row r="15" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+    </row>
+    <row r="16" spans="2:66" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="38"/>
+      <c r="AJ16" s="38"/>
+      <c r="AK16" s="38"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="38"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="38"/>
+      <c r="AR16" s="38"/>
+      <c r="AS16" s="38"/>
+      <c r="AT16" s="38"/>
+      <c r="AU16" s="38"/>
+      <c r="AV16" s="38"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+    </row>
+    <row r="17" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="38"/>
+      <c r="AL17" s="38"/>
+      <c r="AM17" s="38"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="38"/>
+      <c r="AT17" s="38"/>
+      <c r="AU17" s="38"/>
+      <c r="AV17" s="38"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+    </row>
+    <row r="18" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+    </row>
+    <row r="19" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+    </row>
+    <row r="20" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+    </row>
+    <row r="21" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+    </row>
+    <row r="22" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="38"/>
+      <c r="AQ22" s="38"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+    </row>
+    <row r="23" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="38"/>
+      <c r="AP23" s="38"/>
+      <c r="AQ23" s="38"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+    </row>
+    <row r="24" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+    </row>
+    <row r="25" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="37"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+    </row>
+    <row r="26" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+    </row>
+    <row r="27" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="38"/>
+      <c r="AK27" s="38"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+    </row>
+    <row r="28" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+    </row>
+    <row r="29" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+    </row>
+    <row r="30" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+    </row>
+    <row r="31" spans="2:51" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AG3:AI6"/>
+    <mergeCell ref="BC8:BE8"/>
+    <mergeCell ref="BC9:BE9"/>
+    <mergeCell ref="BC10:BE10"/>
+    <mergeCell ref="L23:N26"/>
+    <mergeCell ref="R27:T30"/>
+    <mergeCell ref="AM7:AO10"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="BC5:BE5"/>
+    <mergeCell ref="BC6:BE6"/>
+    <mergeCell ref="BC7:BE7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BK7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>